--- a/Code/Results/Cases/Case_3_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.39950091167708</v>
+        <v>1.796756871132914</v>
       </c>
       <c r="C2">
-        <v>0.5820517446667566</v>
+        <v>0.1837606713198738</v>
       </c>
       <c r="D2">
-        <v>0.04420350046277122</v>
+        <v>0.1071644426475515</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.052206847779274</v>
+        <v>1.924412173522001</v>
       </c>
       <c r="G2">
-        <v>0.8317464888596078</v>
+        <v>1.293845737654308</v>
       </c>
       <c r="H2">
-        <v>0.5626311672478579</v>
+        <v>1.221771967979976</v>
       </c>
       <c r="I2">
-        <v>0.4825752025281318</v>
+        <v>1.118535730343581</v>
       </c>
       <c r="J2">
-        <v>0.05504503800506466</v>
+        <v>0.1602647621920292</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3749738365879551</v>
+        <v>0.4344656513468266</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.955013643665779</v>
+        <v>1.669486464406191</v>
       </c>
       <c r="C3">
-        <v>0.5095132125135535</v>
+        <v>0.1610789908279173</v>
       </c>
       <c r="D3">
-        <v>0.0413958379017032</v>
+        <v>0.1065625338315748</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.007183135138519</v>
+        <v>1.931524136249834</v>
       </c>
       <c r="G3">
-        <v>0.7860379799551538</v>
+        <v>1.296883698497524</v>
       </c>
       <c r="H3">
-        <v>0.5512383980179152</v>
+        <v>1.229893801544861</v>
       </c>
       <c r="I3">
-        <v>0.4868200615328817</v>
+        <v>1.13126578608907</v>
       </c>
       <c r="J3">
-        <v>0.05747137531078383</v>
+        <v>0.1618258699698041</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3350935006082238</v>
+        <v>0.4255119948514903</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.683524835113928</v>
+        <v>1.591709461027051</v>
       </c>
       <c r="C4">
-        <v>0.4651198731974944</v>
+        <v>0.1470943750539959</v>
       </c>
       <c r="D4">
-        <v>0.03969047622340938</v>
+        <v>0.1062058760031164</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9822725074781147</v>
+        <v>1.937148979957925</v>
       </c>
       <c r="G4">
-        <v>0.7605339717187292</v>
+        <v>1.299779530177588</v>
       </c>
       <c r="H4">
-        <v>0.5456846799704067</v>
+        <v>1.235594694574587</v>
       </c>
       <c r="I4">
-        <v>0.4910337295686595</v>
+        <v>1.139832765925881</v>
       </c>
       <c r="J4">
-        <v>0.05904419408887041</v>
+        <v>0.1628402931912936</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3109324199897401</v>
+        <v>0.4201795680688463</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.573185287722822</v>
+        <v>1.560108619660696</v>
       </c>
       <c r="C5">
-        <v>0.4470545381563227</v>
+        <v>0.141381071989116</v>
       </c>
       <c r="D5">
-        <v>0.03899974123457284</v>
+        <v>0.1060638063065475</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9727666694650736</v>
+        <v>1.939757027411019</v>
       </c>
       <c r="G5">
-        <v>0.7507413326682411</v>
+        <v>1.301218024651419</v>
       </c>
       <c r="H5">
-        <v>0.5437640083920883</v>
+        <v>1.238097221176105</v>
       </c>
       <c r="I5">
-        <v>0.4931338173978794</v>
+        <v>1.143512314407985</v>
       </c>
       <c r="J5">
-        <v>0.05970562322497663</v>
+        <v>0.1632677467378363</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3011607031704671</v>
+        <v>0.418048223013912</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.554879462297606</v>
+        <v>1.554867041178511</v>
       </c>
       <c r="C6">
-        <v>0.444056016969256</v>
+        <v>0.1404315127046232</v>
       </c>
       <c r="D6">
-        <v>0.03888528725859786</v>
+        <v>0.1060404140096765</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9712260353010578</v>
+        <v>1.940209156116261</v>
       </c>
       <c r="G6">
-        <v>0.7491503158504003</v>
+        <v>1.301472472665623</v>
       </c>
       <c r="H6">
-        <v>0.5434652096160164</v>
+        <v>1.238523591608356</v>
       </c>
       <c r="I6">
-        <v>0.4935050719684853</v>
+        <v>1.144134672002867</v>
       </c>
       <c r="J6">
-        <v>0.05981667979790117</v>
+        <v>0.1633395750946578</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.299542376837735</v>
+        <v>0.4176968350378445</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.682035647848011</v>
+        <v>1.591282898752013</v>
       </c>
       <c r="C7">
-        <v>0.4648761496311806</v>
+        <v>0.1470173818308069</v>
       </c>
       <c r="D7">
-        <v>0.03968114423717495</v>
+        <v>0.1062039467245093</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9821417487234854</v>
+        <v>1.93718287465601</v>
       </c>
       <c r="G7">
-        <v>0.760399529159983</v>
+        <v>1.299797884834248</v>
       </c>
       <c r="H7">
-        <v>0.5456574157544622</v>
+        <v>1.235627718532584</v>
       </c>
       <c r="I7">
-        <v>0.4910605284431995</v>
+        <v>1.139881627080488</v>
       </c>
       <c r="J7">
-        <v>0.05905303187575139</v>
+        <v>0.1628460010033352</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3108003449639227</v>
+        <v>0.4201506551371494</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.245904699706557</v>
+        <v>1.752798601212589</v>
       </c>
       <c r="C8">
-        <v>0.5570031511733191</v>
+        <v>0.1759521236602097</v>
       </c>
       <c r="D8">
-        <v>0.0432312819238021</v>
+        <v>0.1069542372346781</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.036089033040739</v>
+        <v>1.926602976781965</v>
       </c>
       <c r="G8">
-        <v>0.815427497185226</v>
+        <v>1.294678912814447</v>
       </c>
       <c r="H8">
-        <v>0.5583913383507024</v>
+        <v>1.224424059591243</v>
       </c>
       <c r="I8">
-        <v>0.4836920634792747</v>
+        <v>1.122769053851052</v>
       </c>
       <c r="J8">
-        <v>0.05586416486453682</v>
+        <v>0.1607914382264637</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3611506711091579</v>
+        <v>0.4313442281297739</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.366205261867549</v>
+        <v>2.072398692931984</v>
       </c>
       <c r="C9">
-        <v>0.7393820711893966</v>
+        <v>0.2322307151720793</v>
       </c>
       <c r="D9">
-        <v>0.05036324071148357</v>
+        <v>0.1085271398999481</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.16562007168146</v>
+        <v>1.91586133557476</v>
       </c>
       <c r="G9">
-        <v>0.9457801084349313</v>
+        <v>1.292850961289773</v>
       </c>
       <c r="H9">
-        <v>0.5957713030989567</v>
+        <v>1.208128576034284</v>
       </c>
       <c r="I9">
-        <v>0.4830229625153706</v>
+        <v>1.095182459650481</v>
       </c>
       <c r="J9">
-        <v>0.05028814226107414</v>
+        <v>0.1572053729782317</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.462853826825409</v>
+        <v>0.4546009889202338</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.203130873793498</v>
+        <v>2.308919293805673</v>
       </c>
       <c r="C10">
-        <v>0.8752921408438112</v>
+        <v>0.2732977890767074</v>
       </c>
       <c r="D10">
-        <v>0.05574287773141151</v>
+        <v>0.1097436448508518</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.278355218284688</v>
+        <v>1.914104083571644</v>
       </c>
       <c r="G10">
-        <v>1.058442041579511</v>
+        <v>1.296562194890271</v>
       </c>
       <c r="H10">
-        <v>0.6322690354650859</v>
+        <v>1.199629467348174</v>
       </c>
       <c r="I10">
-        <v>0.4924815699013223</v>
+        <v>1.078575344556533</v>
       </c>
       <c r="J10">
-        <v>0.04663171339235639</v>
+        <v>0.1548398369177564</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5399691950563721</v>
+        <v>0.4724807093915047</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.588108612204053</v>
+        <v>2.416884011404704</v>
       </c>
       <c r="C11">
-        <v>0.9377539719362176</v>
+        <v>0.2919198361288977</v>
       </c>
       <c r="D11">
-        <v>0.05822975704494127</v>
+        <v>0.110310084515973</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.334219357005651</v>
+        <v>1.914644496119621</v>
       </c>
       <c r="G11">
-        <v>1.114155069935833</v>
+        <v>1.299358718675975</v>
       </c>
       <c r="H11">
-        <v>0.6511976426752994</v>
+        <v>1.196520206320429</v>
       </c>
       <c r="I11">
-        <v>0.4993268938268898</v>
+        <v>1.071819705791128</v>
       </c>
       <c r="J11">
-        <v>0.04507056051488512</v>
+        <v>0.1538219492058088</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5757155481635721</v>
+        <v>0.4807863281435658</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.73461455755637</v>
+        <v>2.45781966271278</v>
       </c>
       <c r="C12">
-        <v>0.9615180151999994</v>
+        <v>0.2989629116895003</v>
       </c>
       <c r="D12">
-        <v>0.05917803663464127</v>
+        <v>0.110526436834455</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.356102966008677</v>
+        <v>1.915042385229867</v>
       </c>
       <c r="G12">
-        <v>1.135967329601584</v>
+        <v>1.300577884937354</v>
       </c>
       <c r="H12">
-        <v>0.6587335465887065</v>
+        <v>1.195451908685641</v>
       </c>
       <c r="I12">
-        <v>0.5023201229919181</v>
+        <v>1.069376793477851</v>
       </c>
       <c r="J12">
-        <v>0.04449470344928841</v>
+        <v>0.1534448593856936</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.589360815768444</v>
+        <v>0.4839561006788244</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.703027824231413</v>
+        <v>2.449001159403792</v>
       </c>
       <c r="C13">
-        <v>0.9563947261721353</v>
+        <v>0.2974464477412653</v>
       </c>
       <c r="D13">
-        <v>0.05897350163755277</v>
+        <v>0.1104797593854201</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.351356317458027</v>
+        <v>1.91494808864708</v>
       </c>
       <c r="G13">
-        <v>1.131236627150116</v>
+        <v>1.300308178458096</v>
       </c>
       <c r="H13">
-        <v>0.6570936139468984</v>
+        <v>1.195677128868056</v>
       </c>
       <c r="I13">
-        <v>0.5016570386898707</v>
+        <v>1.069897783857364</v>
       </c>
       <c r="J13">
-        <v>0.0446180327670298</v>
+        <v>0.1535257006395572</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5864169974466904</v>
+        <v>0.4832723406542669</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.600146573057089</v>
+        <v>2.420250783268614</v>
       </c>
       <c r="C14">
-        <v>0.9397067072357572</v>
+        <v>0.2924994490374786</v>
       </c>
       <c r="D14">
-        <v>0.05830763603550793</v>
+        <v>0.1103278469211446</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.336004694809716</v>
+        <v>1.914673354385116</v>
       </c>
       <c r="G14">
-        <v>1.115934803552619</v>
+        <v>1.299455805224994</v>
       </c>
       <c r="H14">
-        <v>0.6518100450794009</v>
+        <v>1.196430128611127</v>
       </c>
       <c r="I14">
-        <v>0.499564895419482</v>
+        <v>1.071616412798882</v>
       </c>
       <c r="J14">
-        <v>0.04502287364098834</v>
+        <v>0.1537907582538391</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5768358903932551</v>
+        <v>0.4810466146234518</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.537226512513257</v>
+        <v>2.402647044016135</v>
       </c>
       <c r="C15">
-        <v>0.9294999022863237</v>
+        <v>0.2894681342682475</v>
       </c>
       <c r="D15">
-        <v>0.05790065435239455</v>
+        <v>0.1102350369375173</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.326698537745031</v>
+        <v>1.914530255543696</v>
       </c>
       <c r="G15">
-        <v>1.106657399508208</v>
+        <v>1.298954586859168</v>
       </c>
       <c r="H15">
-        <v>0.6486226931506565</v>
+        <v>1.196905579826193</v>
       </c>
       <c r="I15">
-        <v>0.4983367375171639</v>
+        <v>1.072684150287763</v>
       </c>
       <c r="J15">
-        <v>0.04527286467075697</v>
+        <v>0.153954202465524</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5709817783498323</v>
+        <v>0.4796864950947679</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.178066573993931</v>
+        <v>2.301870868806304</v>
       </c>
       <c r="C16">
-        <v>0.8712245421677949</v>
+        <v>0.2720795851595881</v>
       </c>
       <c r="D16">
-        <v>0.05558122273205157</v>
+        <v>0.1097068873032683</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.274802398863002</v>
+        <v>1.914095776468471</v>
       </c>
       <c r="G16">
-        <v>1.054896959734933</v>
+        <v>1.296401806357167</v>
       </c>
       <c r="H16">
-        <v>0.6310816035574192</v>
+        <v>1.199847919727716</v>
       </c>
       <c r="I16">
-        <v>0.4920883259525226</v>
+        <v>1.079032954230321</v>
       </c>
       <c r="J16">
-        <v>0.04673584661607322</v>
+        <v>0.1549075288625534</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5376475835287238</v>
+        <v>0.471941368924135</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.958899391477757</v>
+        <v>2.240141722580461</v>
       </c>
       <c r="C17">
-        <v>0.8356506907869914</v>
+        <v>0.2613969269996517</v>
       </c>
       <c r="D17">
-        <v>0.05416905779588888</v>
+        <v>0.1093862100733318</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.244186928146704</v>
+        <v>1.914172807481378</v>
       </c>
       <c r="G17">
-        <v>1.024336459003379</v>
+        <v>1.295120191880883</v>
       </c>
       <c r="H17">
-        <v>0.6209392623422616</v>
+        <v>1.20184702177788</v>
       </c>
       <c r="I17">
-        <v>0.4889304875148781</v>
+        <v>1.083132674890322</v>
       </c>
       <c r="J17">
-        <v>0.04765993590554984</v>
+        <v>0.1555072661771444</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5173776912080115</v>
+        <v>0.4672339600301854</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.833233545414544</v>
+        <v>2.204671693196246</v>
       </c>
       <c r="C18">
-        <v>0.8152480898548617</v>
+        <v>0.2552469446128214</v>
       </c>
       <c r="D18">
-        <v>0.05336049403086207</v>
+        <v>0.109202994204125</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.227004242992678</v>
+        <v>1.914343186403798</v>
       </c>
       <c r="G18">
-        <v>1.007174115251786</v>
+        <v>1.294487307400104</v>
       </c>
       <c r="H18">
-        <v>0.6153223533700185</v>
+        <v>1.203068092069373</v>
       </c>
       <c r="I18">
-        <v>0.487351184871585</v>
+        <v>1.085565909252502</v>
       </c>
       <c r="J18">
-        <v>0.04820102431725726</v>
+        <v>0.1558576983505162</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5057808336058258</v>
+        <v>0.4645425838789521</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.790749590518033</v>
+        <v>2.192668198167837</v>
       </c>
       <c r="C19">
-        <v>0.8083496060207835</v>
+        <v>0.2531637082662144</v>
       </c>
       <c r="D19">
-        <v>0.05308733528713816</v>
+        <v>0.1091411722512277</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.221257701008042</v>
+        <v>1.914422509087586</v>
       </c>
       <c r="G19">
-        <v>1.001432443657521</v>
+        <v>1.294290906577501</v>
       </c>
       <c r="H19">
-        <v>0.6134568109007432</v>
+        <v>1.203493753307725</v>
       </c>
       <c r="I19">
-        <v>0.4868561410164531</v>
+        <v>1.086402661171491</v>
       </c>
       <c r="J19">
-        <v>0.04838585419619346</v>
+        <v>0.1559772899515099</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5018645805162265</v>
+        <v>0.4636341165232807</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.982188634266038</v>
+        <v>2.246709290035994</v>
       </c>
       <c r="C20">
-        <v>0.8394313933321484</v>
+        <v>0.2625346946809088</v>
       </c>
       <c r="D20">
-        <v>0.05431899884867164</v>
+        <v>0.1094202196569682</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.247401365230601</v>
+        <v>1.914151555100133</v>
       </c>
       <c r="G20">
-        <v>1.027546192159051</v>
+        <v>1.295245824847541</v>
       </c>
       <c r="H20">
-        <v>0.6219962713908274</v>
+        <v>1.201626839081754</v>
       </c>
       <c r="I20">
-        <v>0.4892418701564409</v>
+        <v>1.082688468495981</v>
       </c>
       <c r="J20">
-        <v>0.04756056951767196</v>
+        <v>0.1554428561037309</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5195289638816973</v>
+        <v>0.4677333959194812</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.630344720302446</v>
+        <v>2.428694072787096</v>
       </c>
       <c r="C21">
-        <v>0.9446052003920045</v>
+        <v>0.2939527392674108</v>
       </c>
       <c r="D21">
-        <v>0.05850303180634597</v>
+        <v>0.1103724171525187</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.340493455864618</v>
+        <v>1.914748801162432</v>
       </c>
       <c r="G21">
-        <v>1.120409296663183</v>
+        <v>1.299701814062345</v>
       </c>
       <c r="H21">
-        <v>0.6533516837467062</v>
+        <v>1.196205991042888</v>
       </c>
       <c r="I21">
-        <v>0.5001682243121479</v>
+        <v>1.07110847735116</v>
       </c>
       <c r="J21">
-        <v>0.04490354108921935</v>
+        <v>0.1537126775223197</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5796470274607941</v>
+        <v>0.4816996972511873</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.058227614989562</v>
+        <v>2.547932648031519</v>
       </c>
       <c r="C22">
-        <v>1.014000628499815</v>
+        <v>0.3144355440900313</v>
       </c>
       <c r="D22">
-        <v>0.06127619973591436</v>
+        <v>0.1110055293501659</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.405621963063467</v>
+        <v>1.916265798343488</v>
       </c>
       <c r="G22">
-        <v>1.185307372455071</v>
+        <v>1.303548111732255</v>
       </c>
       <c r="H22">
-        <v>0.6760076551448151</v>
+        <v>1.193299260275467</v>
       </c>
       <c r="I22">
-        <v>0.5096659236702266</v>
+        <v>1.064212536789853</v>
       </c>
       <c r="J22">
-        <v>0.04325663361760057</v>
+        <v>0.15263064335055</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6195794414453246</v>
+        <v>0.4909709011249817</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.829427538120683</v>
+        <v>2.484265721264762</v>
       </c>
       <c r="C23">
-        <v>0.9768956934727839</v>
+        <v>0.3035081647583979</v>
       </c>
       <c r="D23">
-        <v>0.05979226299221807</v>
+        <v>0.1106666447779361</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.370444223989381</v>
+        <v>1.915352864697539</v>
       </c>
       <c r="G23">
-        <v>1.150258986384358</v>
+        <v>1.301409534527721</v>
       </c>
       <c r="H23">
-        <v>0.6637057732730511</v>
+        <v>1.194792349523283</v>
       </c>
       <c r="I23">
-        <v>0.5043685408706295</v>
+        <v>1.067831385369779</v>
       </c>
       <c r="J23">
-        <v>0.04412719810154897</v>
+        <v>0.1532036884248065</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5982033647640463</v>
+        <v>0.4860096029583758</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.971658528412149</v>
+        <v>2.243740033871291</v>
       </c>
       <c r="C24">
-        <v>0.837721985678229</v>
+        <v>0.2620203360113749</v>
       </c>
       <c r="D24">
-        <v>0.05425120025595476</v>
+        <v>0.1094048403546068</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.245946819752376</v>
+        <v>1.914160770561935</v>
       </c>
       <c r="G24">
-        <v>1.026093808612217</v>
+        <v>1.295188702492595</v>
       </c>
       <c r="H24">
-        <v>0.6215177333579618</v>
+        <v>1.201726160157676</v>
       </c>
       <c r="I24">
-        <v>0.4891003610501059</v>
+        <v>1.082889056711451</v>
       </c>
       <c r="J24">
-        <v>0.04760546252996445</v>
+        <v>0.15547195834323</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5185561982665092</v>
+        <v>0.4675075542988054</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.061090092752465</v>
+        <v>1.985635384625311</v>
       </c>
       <c r="C25">
-        <v>0.6897749652593461</v>
+        <v>0.2170552688290002</v>
       </c>
       <c r="D25">
-        <v>0.04841215173431834</v>
+        <v>0.108090861273034</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.127733340495098</v>
+        <v>1.91769246366286</v>
       </c>
       <c r="G25">
-        <v>0.9077990007450012</v>
+        <v>1.292461437239425</v>
       </c>
       <c r="H25">
-        <v>0.5841865687986001</v>
+        <v>1.211927999102159</v>
       </c>
       <c r="I25">
-        <v>0.4815767751666726</v>
+        <v>1.102003989126352</v>
       </c>
       <c r="J25">
-        <v>0.05172139647969409</v>
+        <v>0.1581281711554112</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4349654636789921</v>
+        <v>0.4481699327564996</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.796756871132914</v>
+        <v>3.39950091167691</v>
       </c>
       <c r="C2">
-        <v>0.1837606713198738</v>
+        <v>0.5820517446666429</v>
       </c>
       <c r="D2">
-        <v>0.1071644426475515</v>
+        <v>0.0442035004628849</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.924412173522001</v>
+        <v>1.052206847779246</v>
       </c>
       <c r="G2">
-        <v>1.293845737654308</v>
+        <v>0.8317464888596078</v>
       </c>
       <c r="H2">
-        <v>1.221771967979976</v>
+        <v>0.5626311672478437</v>
       </c>
       <c r="I2">
-        <v>1.118535730343581</v>
+        <v>0.4825752025281318</v>
       </c>
       <c r="J2">
-        <v>0.1602647621920292</v>
+        <v>0.05504503800504867</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4344656513468266</v>
+        <v>0.3749738365879409</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.669486464406191</v>
+        <v>2.955013643665836</v>
       </c>
       <c r="C3">
-        <v>0.1610789908279173</v>
+        <v>0.5095132125135535</v>
       </c>
       <c r="D3">
-        <v>0.1065625338315748</v>
+        <v>0.04139583790157175</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.931524136249834</v>
+        <v>1.007183135138533</v>
       </c>
       <c r="G3">
-        <v>1.296883698497524</v>
+        <v>0.7860379799551254</v>
       </c>
       <c r="H3">
-        <v>1.229893801544861</v>
+        <v>0.5512383980179152</v>
       </c>
       <c r="I3">
-        <v>1.13126578608907</v>
+        <v>0.4868200615328817</v>
       </c>
       <c r="J3">
-        <v>0.1618258699698041</v>
+        <v>0.057471375310711</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4255119948514903</v>
+        <v>0.3350935006083233</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.591709461027051</v>
+        <v>2.683524835113928</v>
       </c>
       <c r="C4">
-        <v>0.1470943750539959</v>
+        <v>0.4651198731974944</v>
       </c>
       <c r="D4">
-        <v>0.1062058760031164</v>
+        <v>0.03969047622346977</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.937148979957925</v>
+        <v>0.9822725074781076</v>
       </c>
       <c r="G4">
-        <v>1.299779530177588</v>
+        <v>0.7605339717187007</v>
       </c>
       <c r="H4">
-        <v>1.235594694574587</v>
+        <v>0.5456846799704067</v>
       </c>
       <c r="I4">
-        <v>1.139832765925881</v>
+        <v>0.4910337295686524</v>
       </c>
       <c r="J4">
-        <v>0.1628402931912936</v>
+        <v>0.05904419408889261</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4201795680688463</v>
+        <v>0.3109324199899248</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.560108619660696</v>
+        <v>2.573185287722765</v>
       </c>
       <c r="C5">
-        <v>0.141381071989116</v>
+        <v>0.447054538156749</v>
       </c>
       <c r="D5">
-        <v>0.1060638063065475</v>
+        <v>0.03899974123469363</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.939757027411019</v>
+        <v>0.9727666694650665</v>
       </c>
       <c r="G5">
-        <v>1.301218024651419</v>
+        <v>0.7507413326682268</v>
       </c>
       <c r="H5">
-        <v>1.238097221176105</v>
+        <v>0.5437640083920883</v>
       </c>
       <c r="I5">
-        <v>1.143512314407985</v>
+        <v>0.4931338173978759</v>
       </c>
       <c r="J5">
-        <v>0.1632677467378363</v>
+        <v>0.05970562322497397</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.418048223013912</v>
+        <v>0.3011607031704955</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.554867041178511</v>
+        <v>2.554879462297492</v>
       </c>
       <c r="C6">
-        <v>0.1404315127046232</v>
+        <v>0.4440560169690002</v>
       </c>
       <c r="D6">
-        <v>0.1060404140096765</v>
+        <v>0.03888528725880747</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.940209156116261</v>
+        <v>0.9712260353010791</v>
       </c>
       <c r="G6">
-        <v>1.301472472665623</v>
+        <v>0.7491503158504003</v>
       </c>
       <c r="H6">
-        <v>1.238523591608356</v>
+        <v>0.5434652096160164</v>
       </c>
       <c r="I6">
-        <v>1.144134672002867</v>
+        <v>0.4935050719684924</v>
       </c>
       <c r="J6">
-        <v>0.1633395750946578</v>
+        <v>0.05981667979792693</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4176968350378445</v>
+        <v>0.2995423768377208</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.591282898752013</v>
+        <v>2.68203564784784</v>
       </c>
       <c r="C7">
-        <v>0.1470173818308069</v>
+        <v>0.4648761496311522</v>
       </c>
       <c r="D7">
-        <v>0.1062039467245093</v>
+        <v>0.03968114423710745</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.93718287465601</v>
+        <v>0.9821417487235138</v>
       </c>
       <c r="G7">
-        <v>1.299797884834248</v>
+        <v>0.7603995291600256</v>
       </c>
       <c r="H7">
-        <v>1.235627718532584</v>
+        <v>0.545657415754448</v>
       </c>
       <c r="I7">
-        <v>1.139881627080488</v>
+        <v>0.4910605284431924</v>
       </c>
       <c r="J7">
-        <v>0.1628460010033352</v>
+        <v>0.05905303187585353</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4201506551371494</v>
+        <v>0.3108003449639227</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.752798601212589</v>
+        <v>3.245904699706728</v>
       </c>
       <c r="C8">
-        <v>0.1759521236602097</v>
+        <v>0.5570031511734612</v>
       </c>
       <c r="D8">
-        <v>0.1069542372346781</v>
+        <v>0.04323128192378789</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.926602976781965</v>
+        <v>1.03608903304071</v>
       </c>
       <c r="G8">
-        <v>1.294678912814447</v>
+        <v>0.8154274971851834</v>
       </c>
       <c r="H8">
-        <v>1.224424059591243</v>
+        <v>0.5583913383508303</v>
       </c>
       <c r="I8">
-        <v>1.122769053851052</v>
+        <v>0.4836920634792534</v>
       </c>
       <c r="J8">
-        <v>0.1607914382264637</v>
+        <v>0.05586416486445511</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4313442281297739</v>
+        <v>0.3611506711091153</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.072398692931984</v>
+        <v>4.366205261867606</v>
       </c>
       <c r="C9">
-        <v>0.2322307151720793</v>
+        <v>0.7393820711894818</v>
       </c>
       <c r="D9">
-        <v>0.1085271398999481</v>
+        <v>0.05036324071147646</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.91586133557476</v>
+        <v>1.165620071681431</v>
       </c>
       <c r="G9">
-        <v>1.292850961289773</v>
+        <v>0.9457801084349597</v>
       </c>
       <c r="H9">
-        <v>1.208128576034284</v>
+        <v>0.5957713030989282</v>
       </c>
       <c r="I9">
-        <v>1.095182459650481</v>
+        <v>0.4830229625153422</v>
       </c>
       <c r="J9">
-        <v>0.1572053729782317</v>
+        <v>0.05028814226101019</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4546009889202338</v>
+        <v>0.4628538268253948</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.308919293805673</v>
+        <v>5.203130873793498</v>
       </c>
       <c r="C10">
-        <v>0.2732977890767074</v>
+        <v>0.8752921408438681</v>
       </c>
       <c r="D10">
-        <v>0.1097436448508518</v>
+        <v>0.05574287773128361</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.914104083571644</v>
+        <v>1.278355218284688</v>
       </c>
       <c r="G10">
-        <v>1.296562194890271</v>
+        <v>1.058442041579426</v>
       </c>
       <c r="H10">
-        <v>1.199629467348174</v>
+        <v>0.6322690354651002</v>
       </c>
       <c r="I10">
-        <v>1.078575344556533</v>
+        <v>0.4924815699013365</v>
       </c>
       <c r="J10">
-        <v>0.1548398369177564</v>
+        <v>0.04663171339231731</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4724807093915047</v>
+        <v>0.5399691950564147</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.416884011404704</v>
+        <v>5.588108612203939</v>
       </c>
       <c r="C11">
-        <v>0.2919198361288977</v>
+        <v>0.9377539719364449</v>
       </c>
       <c r="D11">
-        <v>0.110310084515973</v>
+        <v>0.05822975704486311</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.914644496119621</v>
+        <v>1.334219357005651</v>
       </c>
       <c r="G11">
-        <v>1.299358718675975</v>
+        <v>1.114155069935777</v>
       </c>
       <c r="H11">
-        <v>1.196520206320429</v>
+        <v>0.6511976426754131</v>
       </c>
       <c r="I11">
-        <v>1.071819705791128</v>
+        <v>0.4993268938269182</v>
       </c>
       <c r="J11">
-        <v>0.1538219492058088</v>
+        <v>0.04507056051487623</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4807863281435658</v>
+        <v>0.5757155481635863</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.45781966271278</v>
+        <v>5.734614557556313</v>
       </c>
       <c r="C12">
-        <v>0.2989629116895003</v>
+        <v>0.9615180152002267</v>
       </c>
       <c r="D12">
-        <v>0.110526436834455</v>
+        <v>0.05917803663468391</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.915042385229867</v>
+        <v>1.356102966008677</v>
       </c>
       <c r="G12">
-        <v>1.300577884937354</v>
+        <v>1.135967329601584</v>
       </c>
       <c r="H12">
-        <v>1.195451908685641</v>
+        <v>0.6587335465887065</v>
       </c>
       <c r="I12">
-        <v>1.069376793477851</v>
+        <v>0.5023201229919536</v>
       </c>
       <c r="J12">
-        <v>0.1534448593856936</v>
+        <v>0.04449470344924045</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4839561006788244</v>
+        <v>0.5893608157684156</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.449001159403792</v>
+        <v>5.703027824231583</v>
       </c>
       <c r="C13">
-        <v>0.2974464477412653</v>
+        <v>0.9563947261719932</v>
       </c>
       <c r="D13">
-        <v>0.1104797593854201</v>
+        <v>0.05897350163754567</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.91494808864708</v>
+        <v>1.351356317458027</v>
       </c>
       <c r="G13">
-        <v>1.300308178458096</v>
+        <v>1.131236627150173</v>
       </c>
       <c r="H13">
-        <v>1.195677128868056</v>
+        <v>0.6570936139468984</v>
       </c>
       <c r="I13">
-        <v>1.069897783857364</v>
+        <v>0.5016570386898778</v>
       </c>
       <c r="J13">
-        <v>0.1535257006395572</v>
+        <v>0.04461803276698006</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4832723406542669</v>
+        <v>0.5864169974467615</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.420250783268614</v>
+        <v>5.600146573057089</v>
       </c>
       <c r="C14">
-        <v>0.2924994490374786</v>
+        <v>0.9397067072357856</v>
       </c>
       <c r="D14">
-        <v>0.1103278469211446</v>
+        <v>0.05830763603539424</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.914673354385116</v>
+        <v>1.336004694809716</v>
       </c>
       <c r="G14">
-        <v>1.299455805224994</v>
+        <v>1.115934803552591</v>
       </c>
       <c r="H14">
-        <v>1.196430128611127</v>
+        <v>0.6518100450795146</v>
       </c>
       <c r="I14">
-        <v>1.071616412798882</v>
+        <v>0.4995648954194891</v>
       </c>
       <c r="J14">
-        <v>0.1537907582538391</v>
+        <v>0.04502287364105229</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4810466146234518</v>
+        <v>0.5768358903931983</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.402647044016135</v>
+        <v>5.537226512513371</v>
       </c>
       <c r="C15">
-        <v>0.2894681342682475</v>
+        <v>0.9294999022866364</v>
       </c>
       <c r="D15">
-        <v>0.1102350369375173</v>
+        <v>0.05790065435243008</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.914530255543696</v>
+        <v>1.326698537745017</v>
       </c>
       <c r="G15">
-        <v>1.298954586859168</v>
+        <v>1.106657399508151</v>
       </c>
       <c r="H15">
-        <v>1.196905579826193</v>
+        <v>0.6486226931505144</v>
       </c>
       <c r="I15">
-        <v>1.072684150287763</v>
+        <v>0.4983367375171497</v>
       </c>
       <c r="J15">
-        <v>0.153954202465524</v>
+        <v>0.04527286467072678</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4796864950947679</v>
+        <v>0.5709817783498323</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.301870868806304</v>
+        <v>5.178066573994045</v>
       </c>
       <c r="C16">
-        <v>0.2720795851595881</v>
+        <v>0.8712245421676812</v>
       </c>
       <c r="D16">
-        <v>0.1097068873032683</v>
+        <v>0.05558122273204447</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.914095776468471</v>
+        <v>1.274802398863002</v>
       </c>
       <c r="G16">
-        <v>1.296401806357167</v>
+        <v>1.054896959734904</v>
       </c>
       <c r="H16">
-        <v>1.199847919727716</v>
+        <v>0.6310816035574192</v>
       </c>
       <c r="I16">
-        <v>1.079032954230321</v>
+        <v>0.4920883259525439</v>
       </c>
       <c r="J16">
-        <v>0.1549075288625534</v>
+        <v>0.04673584661610697</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.471941368924135</v>
+        <v>0.5376475835286953</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.240141722580461</v>
+        <v>4.958899391477644</v>
       </c>
       <c r="C17">
-        <v>0.2613969269996517</v>
+        <v>0.8356506907870198</v>
       </c>
       <c r="D17">
-        <v>0.1093862100733318</v>
+        <v>0.0541690577959173</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.914172807481378</v>
+        <v>1.244186928146718</v>
       </c>
       <c r="G17">
-        <v>1.295120191880883</v>
+        <v>1.024336459003422</v>
       </c>
       <c r="H17">
-        <v>1.20184702177788</v>
+        <v>0.6209392623422758</v>
       </c>
       <c r="I17">
-        <v>1.083132674890322</v>
+        <v>0.4889304875148781</v>
       </c>
       <c r="J17">
-        <v>0.1555072661771444</v>
+        <v>0.04765993590558093</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4672339600301854</v>
+        <v>0.5173776912078978</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.204671693196246</v>
+        <v>4.83323354541443</v>
       </c>
       <c r="C18">
-        <v>0.2552469446128214</v>
+        <v>0.8152480898548333</v>
       </c>
       <c r="D18">
-        <v>0.109202994204125</v>
+        <v>0.05336049403075549</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.914343186403798</v>
+        <v>1.227004242992678</v>
       </c>
       <c r="G18">
-        <v>1.294487307400104</v>
+        <v>1.007174115251672</v>
       </c>
       <c r="H18">
-        <v>1.203068092069373</v>
+        <v>0.6153223533698906</v>
       </c>
       <c r="I18">
-        <v>1.085565909252502</v>
+        <v>0.487351184871585</v>
       </c>
       <c r="J18">
-        <v>0.1558576983505162</v>
+        <v>0.04820102431731677</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4645425838789521</v>
+        <v>0.5057808336057548</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.192668198167837</v>
+        <v>4.790749590517748</v>
       </c>
       <c r="C19">
-        <v>0.2531637082662144</v>
+        <v>0.8083496060207267</v>
       </c>
       <c r="D19">
-        <v>0.1091411722512277</v>
+        <v>0.05308733528725895</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.914422509087586</v>
+        <v>1.221257701008028</v>
       </c>
       <c r="G19">
-        <v>1.294290906577501</v>
+        <v>1.001432443657521</v>
       </c>
       <c r="H19">
-        <v>1.203493753307725</v>
+        <v>0.6134568109006153</v>
       </c>
       <c r="I19">
-        <v>1.086402661171491</v>
+        <v>0.4868561410164318</v>
       </c>
       <c r="J19">
-        <v>0.1559772899515099</v>
+        <v>0.04838585419626895</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4636341165232807</v>
+        <v>0.5018645805162976</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.246709290035994</v>
+        <v>4.982188634265924</v>
       </c>
       <c r="C20">
-        <v>0.2625346946809088</v>
+        <v>0.8394313933320348</v>
       </c>
       <c r="D20">
-        <v>0.1094202196569682</v>
+        <v>0.05431899884867164</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.914151555100133</v>
+        <v>1.24740136523063</v>
       </c>
       <c r="G20">
-        <v>1.295245824847541</v>
+        <v>1.027546192159136</v>
       </c>
       <c r="H20">
-        <v>1.201626839081754</v>
+        <v>0.6219962713909268</v>
       </c>
       <c r="I20">
-        <v>1.082688468495981</v>
+        <v>0.489241870156448</v>
       </c>
       <c r="J20">
-        <v>0.1554428561037309</v>
+        <v>0.04756056951766485</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4677333959194812</v>
+        <v>0.5195289638815694</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.428694072787096</v>
+        <v>5.630344720302389</v>
       </c>
       <c r="C21">
-        <v>0.2939527392674108</v>
+        <v>0.944605200391976</v>
       </c>
       <c r="D21">
-        <v>0.1103724171525187</v>
+        <v>0.05850303180621808</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.914748801162432</v>
+        <v>1.340493455864589</v>
       </c>
       <c r="G21">
-        <v>1.299701814062345</v>
+        <v>1.120409296663183</v>
       </c>
       <c r="H21">
-        <v>1.196205991042888</v>
+        <v>0.6533516837468198</v>
       </c>
       <c r="I21">
-        <v>1.07110847735116</v>
+        <v>0.5001682243121337</v>
       </c>
       <c r="J21">
-        <v>0.1537126775223197</v>
+        <v>0.04490354108918915</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4816996972511873</v>
+        <v>0.5796470274608225</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.547932648031519</v>
+        <v>6.058227614989619</v>
       </c>
       <c r="C22">
-        <v>0.3144355440900313</v>
+        <v>1.01400062849973</v>
       </c>
       <c r="D22">
-        <v>0.1110055293501659</v>
+        <v>0.06127619973593568</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.916265798343488</v>
+        <v>1.405621963063453</v>
       </c>
       <c r="G22">
-        <v>1.303548111732255</v>
+        <v>1.1853073724551</v>
       </c>
       <c r="H22">
-        <v>1.193299260275467</v>
+        <v>0.6760076551447014</v>
       </c>
       <c r="I22">
-        <v>1.064212536789853</v>
+        <v>0.5096659236702266</v>
       </c>
       <c r="J22">
-        <v>0.15263064335055</v>
+        <v>0.04325663361768761</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4909709011249817</v>
+        <v>0.6195794414452962</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.484265721264762</v>
+        <v>5.829427538120626</v>
       </c>
       <c r="C23">
-        <v>0.3035081647583979</v>
+        <v>0.9768956934728124</v>
       </c>
       <c r="D23">
-        <v>0.1106666447779361</v>
+        <v>0.05979226299202622</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.915352864697539</v>
+        <v>1.370444223989381</v>
       </c>
       <c r="G23">
-        <v>1.301409534527721</v>
+        <v>1.150258986384415</v>
       </c>
       <c r="H23">
-        <v>1.194792349523283</v>
+        <v>0.6637057732730796</v>
       </c>
       <c r="I23">
-        <v>1.067831385369779</v>
+        <v>0.5043685408706224</v>
       </c>
       <c r="J23">
-        <v>0.1532036884248065</v>
+        <v>0.04412719810159338</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4860096029583758</v>
+        <v>0.5982033647641174</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.243740033871291</v>
+        <v>4.971658528411922</v>
       </c>
       <c r="C24">
-        <v>0.2620203360113749</v>
+        <v>0.8377219856781153</v>
       </c>
       <c r="D24">
-        <v>0.1094048403546068</v>
+        <v>0.05425120025596897</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.914160770561935</v>
+        <v>1.245946819752376</v>
       </c>
       <c r="G24">
-        <v>1.295188702492595</v>
+        <v>1.026093808612202</v>
       </c>
       <c r="H24">
-        <v>1.201726160157676</v>
+        <v>0.6215177333580613</v>
       </c>
       <c r="I24">
-        <v>1.082889056711451</v>
+        <v>0.4891003610500988</v>
       </c>
       <c r="J24">
-        <v>0.15547195834323</v>
+        <v>0.04760546252989961</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4675075542988054</v>
+        <v>0.5185561982666655</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.985635384625311</v>
+        <v>4.061090092752579</v>
       </c>
       <c r="C25">
-        <v>0.2170552688290002</v>
+        <v>0.6897749652596588</v>
       </c>
       <c r="D25">
-        <v>0.108090861273034</v>
+        <v>0.0484121517341336</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.91769246366286</v>
+        <v>1.127733340495112</v>
       </c>
       <c r="G25">
-        <v>1.292461437239425</v>
+        <v>0.9077990007449017</v>
       </c>
       <c r="H25">
-        <v>1.211927999102159</v>
+        <v>0.5841865687986001</v>
       </c>
       <c r="I25">
-        <v>1.102003989126352</v>
+        <v>0.4815767751666584</v>
       </c>
       <c r="J25">
-        <v>0.1581281711554112</v>
+        <v>0.05172139647973761</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4481699327564996</v>
+        <v>0.4349654636790774</v>
       </c>
       <c r="M25">
         <v>0</v>
